--- a/var_info/indv_panel_var_info/DHS_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/DHS_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADA395F-7D86-9F4A-ABF1-8E3B3D1A4F8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8099F2-F33A-4440-9786-265DEF5ED1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="21600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="PanelInfo" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="123">
   <si>
     <t>ord</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t>Lifespan</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -1245,11 +1248,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O155"/>
+  <dimension ref="A1:P155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O164" sqref="O164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1259,7 +1262,7 @@
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -1303,10 +1306,13 @@
         <v>85</v>
       </c>
       <c r="O1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1343,8 +1349,11 @@
       <c r="M2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -1381,8 +1390,11 @@
       <c r="M3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -1413,8 +1425,11 @@
       <c r="J4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -1445,8 +1460,11 @@
       <c r="J5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -1477,8 +1495,11 @@
       <c r="J6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -1509,8 +1530,11 @@
       <c r="J7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1541,8 +1565,11 @@
       <c r="J8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -1573,8 +1600,11 @@
       <c r="J9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -1605,8 +1635,11 @@
       <c r="J10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -1637,8 +1670,11 @@
       <c r="J11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -1669,8 +1705,11 @@
       <c r="J12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -1701,8 +1740,11 @@
       <c r="J13">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -1733,8 +1775,11 @@
       <c r="J14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -1765,8 +1810,11 @@
       <c r="J15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -1797,8 +1845,11 @@
       <c r="J16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -1829,8 +1880,11 @@
       <c r="J17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -1861,8 +1915,11 @@
       <c r="J18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -1893,8 +1950,11 @@
       <c r="J19">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -1925,8 +1985,11 @@
       <c r="J20">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -1957,8 +2020,11 @@
       <c r="J21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -1989,8 +2055,11 @@
       <c r="J22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -2021,8 +2090,11 @@
       <c r="J23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -2053,8 +2125,11 @@
       <c r="J24">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -2085,8 +2160,11 @@
       <c r="J25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -2117,8 +2195,11 @@
       <c r="J26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -2149,8 +2230,11 @@
       <c r="J27">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -2181,8 +2265,11 @@
       <c r="J28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -2213,8 +2300,11 @@
       <c r="J29">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -2245,8 +2335,11 @@
       <c r="J30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -2277,8 +2370,11 @@
       <c r="J31">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -2309,8 +2405,11 @@
       <c r="J32">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -2341,8 +2440,11 @@
       <c r="J33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -2373,8 +2475,11 @@
       <c r="J34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -2405,8 +2510,11 @@
       <c r="J35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -2437,8 +2545,11 @@
       <c r="J36">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -2469,8 +2580,11 @@
       <c r="J37">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -2501,8 +2615,11 @@
       <c r="J38">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -2533,8 +2650,11 @@
       <c r="J39">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -2565,8 +2685,11 @@
       <c r="J40">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -2597,8 +2720,11 @@
       <c r="J41">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -2629,8 +2755,11 @@
       <c r="J42">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -2661,8 +2790,11 @@
       <c r="J43">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -2693,8 +2825,11 @@
       <c r="J44">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -2725,8 +2860,11 @@
       <c r="J45">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -2757,8 +2895,11 @@
       <c r="J46">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -2789,8 +2930,11 @@
       <c r="J47">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -2821,8 +2965,11 @@
       <c r="J48">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -2853,8 +3000,11 @@
       <c r="J49">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -2885,8 +3035,11 @@
       <c r="J50">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -2917,8 +3070,11 @@
       <c r="J51">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -2949,8 +3105,11 @@
       <c r="J52">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -2981,8 +3140,11 @@
       <c r="J53">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -3013,8 +3175,11 @@
       <c r="J54">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -3045,8 +3210,11 @@
       <c r="J55">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -3077,8 +3245,11 @@
       <c r="J56">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -3109,8 +3280,11 @@
       <c r="J57">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -3141,8 +3315,11 @@
       <c r="J58">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>97</v>
       </c>
@@ -3173,8 +3350,11 @@
       <c r="J59">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>97</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="J60">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -3237,8 +3420,11 @@
       <c r="J61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -3269,8 +3455,11 @@
       <c r="J62">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>97</v>
       </c>
@@ -3301,8 +3490,11 @@
       <c r="J63">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -3333,8 +3525,11 @@
       <c r="J64">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -3365,8 +3560,11 @@
       <c r="J65">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>97</v>
       </c>
@@ -3397,8 +3595,11 @@
       <c r="J66">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>97</v>
       </c>
@@ -3429,8 +3630,11 @@
       <c r="J67">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -3461,8 +3665,11 @@
       <c r="J68">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="O68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -3493,8 +3700,11 @@
       <c r="J69">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="O69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -3525,8 +3735,11 @@
       <c r="J70">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="O70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -3557,8 +3770,11 @@
       <c r="J71">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="O71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -3589,8 +3805,11 @@
       <c r="J72">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="O72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -3621,8 +3840,11 @@
       <c r="J73">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="O73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>97</v>
       </c>
@@ -3653,8 +3875,11 @@
       <c r="J74">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="O74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>97</v>
       </c>
@@ -3685,8 +3910,11 @@
       <c r="J75">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="O75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -3717,8 +3945,11 @@
       <c r="J76">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="O76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -3749,8 +3980,11 @@
       <c r="J77">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="O77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -3781,8 +4015,11 @@
       <c r="J78">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -3813,8 +4050,11 @@
       <c r="J79">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="O79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>97</v>
       </c>
@@ -3845,8 +4085,11 @@
       <c r="J80">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="O80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -3877,8 +4120,11 @@
       <c r="J81">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="O81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -3909,8 +4155,11 @@
       <c r="J82">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="O82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -3941,8 +4190,11 @@
       <c r="J83">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="O83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -3973,8 +4225,11 @@
       <c r="J84">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="O84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -4005,8 +4260,11 @@
       <c r="J85">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="O85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -4037,8 +4295,11 @@
       <c r="J86">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="O86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -4069,8 +4330,11 @@
       <c r="J87">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="O87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -4101,8 +4365,11 @@
       <c r="J88">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="O88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -4133,8 +4400,11 @@
       <c r="J89">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="O89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
         <v>97</v>
       </c>
@@ -4165,8 +4435,11 @@
       <c r="J90">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="O90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -4197,8 +4470,11 @@
       <c r="J91">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="O91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -4229,8 +4505,11 @@
       <c r="J92">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="O92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -4261,8 +4540,11 @@
       <c r="J93">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="O93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -4293,8 +4575,11 @@
       <c r="J94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="O94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -4325,8 +4610,11 @@
       <c r="J95">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="O95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -4357,8 +4645,11 @@
       <c r="J96">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="O96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -4389,8 +4680,11 @@
       <c r="J97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="O97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -4421,8 +4715,11 @@
       <c r="J98">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="O98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -4453,8 +4750,11 @@
       <c r="J99">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="O99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -4485,8 +4785,11 @@
       <c r="J100">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="O100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -4517,8 +4820,11 @@
       <c r="J101">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="O101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
         <v>97</v>
       </c>
@@ -4549,8 +4855,11 @@
       <c r="J102">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="O102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
         <v>97</v>
       </c>
@@ -4581,8 +4890,11 @@
       <c r="J103">
         <v>7</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="O103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" t="s">
         <v>97</v>
       </c>
@@ -4613,8 +4925,11 @@
       <c r="J104">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="O104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" t="s">
         <v>97</v>
       </c>
@@ -4645,8 +4960,11 @@
       <c r="J105">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="O105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" t="s">
         <v>97</v>
       </c>
@@ -4677,8 +4995,11 @@
       <c r="J106">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="O106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" t="s">
         <v>97</v>
       </c>
@@ -4709,8 +5030,11 @@
       <c r="J107">
         <v>7</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="O107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" t="s">
         <v>97</v>
       </c>
@@ -4741,8 +5065,11 @@
       <c r="J108">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="O108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" t="s">
         <v>97</v>
       </c>
@@ -4773,8 +5100,11 @@
       <c r="J109">
         <v>7</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="O109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" t="s">
         <v>97</v>
       </c>
@@ -4805,8 +5135,11 @@
       <c r="J110">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="O110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" t="s">
         <v>97</v>
       </c>
@@ -4837,8 +5170,11 @@
       <c r="J111">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="O111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" t="s">
         <v>97</v>
       </c>
@@ -4869,8 +5205,11 @@
       <c r="J112">
         <v>7</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="O112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" t="s">
         <v>97</v>
       </c>
@@ -4901,8 +5240,11 @@
       <c r="J113">
         <v>7</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="O113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" t="s">
         <v>97</v>
       </c>
@@ -4933,8 +5275,11 @@
       <c r="J114">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="O114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" t="s">
         <v>97</v>
       </c>
@@ -4965,8 +5310,11 @@
       <c r="J115">
         <v>7</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="O115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" t="s">
         <v>97</v>
       </c>
@@ -4997,8 +5345,11 @@
       <c r="J116">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="O116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117" t="s">
         <v>97</v>
       </c>
@@ -5029,8 +5380,11 @@
       <c r="J117">
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="O117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" t="s">
         <v>97</v>
       </c>
@@ -5061,8 +5415,11 @@
       <c r="J118">
         <v>7</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="O118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119" t="s">
         <v>97</v>
       </c>
@@ -5093,8 +5450,11 @@
       <c r="J119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="O119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120" t="s">
         <v>97</v>
       </c>
@@ -5125,8 +5485,11 @@
       <c r="J120">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="O120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121" t="s">
         <v>97</v>
       </c>
@@ -5157,8 +5520,11 @@
       <c r="J121">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="O121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" t="s">
         <v>97</v>
       </c>
@@ -5189,8 +5555,11 @@
       <c r="J122">
         <v>7</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="O122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123" t="s">
         <v>97</v>
       </c>
@@ -5221,8 +5590,11 @@
       <c r="J123">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="O123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" t="s">
         <v>97</v>
       </c>
@@ -5253,8 +5625,11 @@
       <c r="J124">
         <v>7</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="O124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" t="s">
         <v>97</v>
       </c>
@@ -5285,8 +5660,11 @@
       <c r="J125">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="O125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" t="s">
         <v>97</v>
       </c>
@@ -5317,8 +5695,11 @@
       <c r="J126">
         <v>7</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="O126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" t="s">
         <v>97</v>
       </c>
@@ -5349,8 +5730,11 @@
       <c r="J127">
         <v>7</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="O127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" t="s">
         <v>97</v>
       </c>
@@ -5381,8 +5765,11 @@
       <c r="J128">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="O128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" t="s">
         <v>97</v>
       </c>
@@ -5413,8 +5800,11 @@
       <c r="J129">
         <v>7</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="O129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" t="s">
         <v>97</v>
       </c>
@@ -5445,8 +5835,11 @@
       <c r="J130">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="O130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" t="s">
         <v>97</v>
       </c>
@@ -5477,8 +5870,11 @@
       <c r="J131">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="O131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" t="s">
         <v>97</v>
       </c>
@@ -5509,8 +5905,11 @@
       <c r="J132">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="O132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" t="s">
         <v>97</v>
       </c>
@@ -5541,8 +5940,11 @@
       <c r="J133">
         <v>7</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="O133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" t="s">
         <v>97</v>
       </c>
@@ -5573,8 +5975,11 @@
       <c r="J134">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="O134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" t="s">
         <v>97</v>
       </c>
@@ -5605,8 +6010,11 @@
       <c r="J135">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="O135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
         <v>97</v>
       </c>
@@ -5637,8 +6045,11 @@
       <c r="J136">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="O136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
         <v>97</v>
       </c>
@@ -5669,8 +6080,11 @@
       <c r="J137">
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="O137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" t="s">
         <v>97</v>
       </c>
@@ -5701,8 +6115,11 @@
       <c r="J138">
         <v>7</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="O138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" t="s">
         <v>97</v>
       </c>
@@ -5733,8 +6150,11 @@
       <c r="J139">
         <v>7</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="O139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" t="s">
         <v>97</v>
       </c>
@@ -5765,8 +6185,11 @@
       <c r="J140">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="O140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" t="s">
         <v>97</v>
       </c>
@@ -5797,8 +6220,11 @@
       <c r="J141">
         <v>7</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="O141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" t="s">
         <v>97</v>
       </c>
@@ -5829,8 +6255,11 @@
       <c r="J142">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="O142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" t="s">
         <v>97</v>
       </c>
@@ -5861,8 +6290,11 @@
       <c r="J143">
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="O143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" t="s">
         <v>97</v>
       </c>
@@ -5893,8 +6325,11 @@
       <c r="J144">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="O144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" t="s">
         <v>97</v>
       </c>
@@ -5925,8 +6360,11 @@
       <c r="J145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="O145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" t="s">
         <v>97</v>
       </c>
@@ -5957,8 +6395,11 @@
       <c r="J146">
         <v>7</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="O146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" t="s">
         <v>97</v>
       </c>
@@ -5989,8 +6430,11 @@
       <c r="J147">
         <v>7</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="O147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" t="s">
         <v>97</v>
       </c>
@@ -6021,8 +6465,11 @@
       <c r="J148">
         <v>7</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="O148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" t="s">
         <v>97</v>
       </c>
@@ -6053,8 +6500,11 @@
       <c r="J149">
         <v>7</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="O149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" t="s">
         <v>97</v>
       </c>
@@ -6085,8 +6535,11 @@
       <c r="J150">
         <v>7</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="O150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" t="s">
         <v>97</v>
       </c>
@@ -6117,8 +6570,11 @@
       <c r="J151">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="O151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" t="s">
         <v>97</v>
       </c>
@@ -6149,8 +6605,11 @@
       <c r="J152">
         <v>7</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="O152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" t="s">
         <v>97</v>
       </c>
@@ -6181,8 +6640,11 @@
       <c r="J153">
         <v>7</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="O153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" t="s">
         <v>97</v>
       </c>
@@ -6213,8 +6675,11 @@
       <c r="J154">
         <v>7</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="O154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" t="s">
         <v>97</v>
       </c>
@@ -6244,6 +6709,9 @@
       </c>
       <c r="J155">
         <v>7</v>
+      </c>
+      <c r="O155">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6253,10 +6721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6265,7 +6733,7 @@
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -6309,10 +6777,13 @@
         <v>85</v>
       </c>
       <c r="O1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17">
+    <row r="2" spans="1:16" ht="17">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -6328,11 +6799,11 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17">
+    <row r="3" spans="1:16" ht="17">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -6348,11 +6819,11 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -6368,11 +6839,11 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -6388,11 +6859,11 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="17">
+    <row r="6" spans="1:16" ht="17">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -6408,11 +6879,11 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="17">
+    <row r="7" spans="1:16" ht="17">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -6428,11 +6899,11 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -6448,11 +6919,11 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -6468,11 +6939,11 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="17">
+    <row r="10" spans="1:16" ht="17">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -6488,11 +6959,11 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17">
+    <row r="11" spans="1:16" ht="17">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -6508,11 +6979,11 @@
       <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -6528,11 +6999,11 @@
       <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -6548,11 +7019,11 @@
       <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="17">
+    <row r="14" spans="1:16" ht="17">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -6568,11 +7039,11 @@
       <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="17">
+    <row r="15" spans="1:16" ht="17">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -6588,11 +7059,11 @@
       <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -6608,11 +7079,11 @@
       <c r="E16" t="s">
         <v>12</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -6628,11 +7099,11 @@
       <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="17">
+    <row r="18" spans="1:16" ht="17">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -6648,11 +7119,11 @@
       <c r="E18" t="s">
         <v>13</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="17">
+    <row r="19" spans="1:16" ht="17">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -6668,11 +7139,11 @@
       <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -6688,11 +7159,11 @@
       <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -6708,11 +7179,11 @@
       <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="17">
+    <row r="22" spans="1:16" ht="17">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -6728,11 +7199,11 @@
       <c r="E22" t="s">
         <v>13</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="17">
+    <row r="23" spans="1:16" ht="17">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -6748,11 +7219,11 @@
       <c r="E23" t="s">
         <v>13</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -6768,11 +7239,11 @@
       <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -6788,11 +7259,11 @@
       <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="17">
+    <row r="26" spans="1:16" ht="17">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -6808,11 +7279,11 @@
       <c r="E26" t="s">
         <v>13</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="17">
+    <row r="27" spans="1:16" ht="17">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -6828,11 +7299,11 @@
       <c r="E27" t="s">
         <v>13</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -6848,11 +7319,11 @@
       <c r="E28" t="s">
         <v>12</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -6868,11 +7339,11 @@
       <c r="E29" t="s">
         <v>12</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="17">
+    <row r="30" spans="1:16" ht="17">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -6888,11 +7359,11 @@
       <c r="E30" t="s">
         <v>13</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="17">
+    <row r="31" spans="1:16" ht="17">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -6908,11 +7379,11 @@
       <c r="E31" t="s">
         <v>13</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -6928,11 +7399,11 @@
       <c r="E32" t="s">
         <v>12</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -6948,11 +7419,11 @@
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="17">
+    <row r="34" spans="1:16" ht="17">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -6968,11 +7439,11 @@
       <c r="E34" t="s">
         <v>13</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="17">
+    <row r="35" spans="1:16" ht="17">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -6988,11 +7459,11 @@
       <c r="E35" t="s">
         <v>13</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -7008,11 +7479,11 @@
       <c r="E36" t="s">
         <v>12</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -7028,11 +7499,11 @@
       <c r="E37" t="s">
         <v>12</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="17">
+    <row r="38" spans="1:16" ht="17">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -7048,11 +7519,11 @@
       <c r="E38" t="s">
         <v>13</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="17">
+    <row r="39" spans="1:16" ht="17">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -7068,11 +7539,11 @@
       <c r="E39" t="s">
         <v>13</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -7088,11 +7559,11 @@
       <c r="E40" t="s">
         <v>12</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -7108,11 +7579,11 @@
       <c r="E41" t="s">
         <v>12</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="17">
+    <row r="42" spans="1:16" ht="17">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -7128,11 +7599,11 @@
       <c r="E42" t="s">
         <v>13</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="17">
+    <row r="43" spans="1:16" ht="17">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -7148,11 +7619,11 @@
       <c r="E43" t="s">
         <v>13</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -7168,11 +7639,11 @@
       <c r="E44" t="s">
         <v>12</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -7188,11 +7659,11 @@
       <c r="E45" t="s">
         <v>12</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="17">
+    <row r="46" spans="1:16" ht="17">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -7208,11 +7679,11 @@
       <c r="E46" t="s">
         <v>13</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="17">
+    <row r="47" spans="1:16" ht="17">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -7228,11 +7699,11 @@
       <c r="E47" t="s">
         <v>13</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -7248,11 +7719,11 @@
       <c r="E48" t="s">
         <v>12</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -7268,11 +7739,11 @@
       <c r="E49" t="s">
         <v>12</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="17">
+    <row r="50" spans="1:16" ht="17">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -7288,11 +7759,11 @@
       <c r="E50" t="s">
         <v>13</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="17">
+    <row r="51" spans="1:16" ht="17">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -7308,11 +7779,11 @@
       <c r="E51" t="s">
         <v>13</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -7328,11 +7799,11 @@
       <c r="E52" t="s">
         <v>12</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -7348,11 +7819,11 @@
       <c r="E53" t="s">
         <v>12</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="17">
+    <row r="54" spans="1:16" ht="17">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -7368,11 +7839,11 @@
       <c r="E54" t="s">
         <v>13</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="17">
+    <row r="55" spans="1:16" ht="17">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -7388,11 +7859,11 @@
       <c r="E55" t="s">
         <v>13</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -7408,11 +7879,11 @@
       <c r="E56" t="s">
         <v>12</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -7428,11 +7899,11 @@
       <c r="E57" t="s">
         <v>12</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="17">
+    <row r="58" spans="1:16" ht="17">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -7448,11 +7919,11 @@
       <c r="E58" t="s">
         <v>13</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="17">
+    <row r="59" spans="1:16" ht="17">
       <c r="A59" t="s">
         <v>97</v>
       </c>
@@ -7468,11 +7939,11 @@
       <c r="E59" t="s">
         <v>13</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>97</v>
       </c>
@@ -7488,11 +7959,11 @@
       <c r="E60" t="s">
         <v>12</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -7508,11 +7979,11 @@
       <c r="E61" t="s">
         <v>12</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="17">
+    <row r="62" spans="1:16" ht="17">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -7528,11 +7999,11 @@
       <c r="E62" t="s">
         <v>13</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="17">
+    <row r="63" spans="1:16" ht="17">
       <c r="A63" t="s">
         <v>97</v>
       </c>
@@ -7548,11 +8019,11 @@
       <c r="E63" t="s">
         <v>13</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -7568,11 +8039,11 @@
       <c r="E64" t="s">
         <v>12</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -7588,11 +8059,11 @@
       <c r="E65" t="s">
         <v>12</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="17">
+    <row r="66" spans="1:16" ht="17">
       <c r="A66" t="s">
         <v>97</v>
       </c>
@@ -7608,11 +8079,11 @@
       <c r="E66" t="s">
         <v>13</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="17">
+    <row r="67" spans="1:16" ht="17">
       <c r="A67" t="s">
         <v>97</v>
       </c>
@@ -7628,11 +8099,11 @@
       <c r="E67" t="s">
         <v>13</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -7648,11 +8119,11 @@
       <c r="E68" t="s">
         <v>12</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -7668,11 +8139,11 @@
       <c r="E69" t="s">
         <v>12</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="17">
+    <row r="70" spans="1:16" ht="17">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -7688,11 +8159,11 @@
       <c r="E70" t="s">
         <v>13</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="17">
+    <row r="71" spans="1:16" ht="17">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -7708,11 +8179,11 @@
       <c r="E71" t="s">
         <v>13</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -7728,11 +8199,11 @@
       <c r="E72" t="s">
         <v>12</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -7748,11 +8219,11 @@
       <c r="E73" t="s">
         <v>12</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="17">
+    <row r="74" spans="1:16" ht="17">
       <c r="A74" t="s">
         <v>97</v>
       </c>
@@ -7768,11 +8239,11 @@
       <c r="E74" t="s">
         <v>13</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="17">
+    <row r="75" spans="1:16" ht="17">
       <c r="A75" t="s">
         <v>97</v>
       </c>
@@ -7788,11 +8259,11 @@
       <c r="E75" t="s">
         <v>13</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -7808,11 +8279,11 @@
       <c r="E76" t="s">
         <v>12</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -7828,11 +8299,11 @@
       <c r="E77" t="s">
         <v>12</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="17">
+    <row r="78" spans="1:16" ht="17">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -7848,11 +8319,11 @@
       <c r="E78" t="s">
         <v>13</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="17">
+    <row r="79" spans="1:16" ht="17">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -7868,11 +8339,11 @@
       <c r="E79" t="s">
         <v>13</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
         <v>97</v>
       </c>
@@ -7888,11 +8359,11 @@
       <c r="E80" t="s">
         <v>12</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -7908,11 +8379,11 @@
       <c r="E81" t="s">
         <v>12</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="17">
+    <row r="82" spans="1:16" ht="17">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -7928,11 +8399,11 @@
       <c r="E82" t="s">
         <v>13</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="17">
+    <row r="83" spans="1:16" ht="17">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -7948,11 +8419,11 @@
       <c r="E83" t="s">
         <v>13</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -7968,11 +8439,11 @@
       <c r="E84" t="s">
         <v>12</v>
       </c>
-      <c r="O84" t="s">
+      <c r="P84" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -7988,11 +8459,11 @@
       <c r="E85" t="s">
         <v>12</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="17">
+    <row r="86" spans="1:16" ht="17">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -8008,11 +8479,11 @@
       <c r="E86" t="s">
         <v>13</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="17">
+    <row r="87" spans="1:16" ht="17">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -8028,11 +8499,11 @@
       <c r="E87" t="s">
         <v>13</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:16">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -8048,11 +8519,11 @@
       <c r="E88" t="s">
         <v>12</v>
       </c>
-      <c r="O88" t="s">
+      <c r="P88" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -8068,11 +8539,11 @@
       <c r="E89" t="s">
         <v>12</v>
       </c>
-      <c r="O89" t="s">
+      <c r="P89" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="17">
+    <row r="90" spans="1:16" ht="17">
       <c r="A90" t="s">
         <v>97</v>
       </c>
@@ -8088,11 +8559,11 @@
       <c r="E90" t="s">
         <v>13</v>
       </c>
-      <c r="O90" t="s">
+      <c r="P90" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="17">
+    <row r="91" spans="1:16" ht="17">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -8108,11 +8579,11 @@
       <c r="E91" t="s">
         <v>13</v>
       </c>
-      <c r="O91" t="s">
+      <c r="P91" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:16">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -8128,11 +8599,11 @@
       <c r="E92" t="s">
         <v>12</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:16">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -8148,11 +8619,11 @@
       <c r="E93" t="s">
         <v>12</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="17">
+    <row r="94" spans="1:16" ht="17">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -8168,11 +8639,11 @@
       <c r="E94" t="s">
         <v>13</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="17">
+    <row r="95" spans="1:16" ht="17">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -8188,11 +8659,11 @@
       <c r="E95" t="s">
         <v>13</v>
       </c>
-      <c r="O95" t="s">
+      <c r="P95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:16">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -8208,11 +8679,11 @@
       <c r="E96" t="s">
         <v>12</v>
       </c>
-      <c r="O96" t="s">
+      <c r="P96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -8228,11 +8699,11 @@
       <c r="E97" t="s">
         <v>12</v>
       </c>
-      <c r="O97" t="s">
+      <c r="P97" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="17">
+    <row r="98" spans="1:16" ht="17">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -8248,11 +8719,11 @@
       <c r="E98" t="s">
         <v>13</v>
       </c>
-      <c r="O98" t="s">
+      <c r="P98" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="17">
+    <row r="99" spans="1:16" ht="17">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -8268,11 +8739,11 @@
       <c r="E99" t="s">
         <v>13</v>
       </c>
-      <c r="O99" t="s">
+      <c r="P99" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:16">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -8288,11 +8759,11 @@
       <c r="E100" t="s">
         <v>12</v>
       </c>
-      <c r="O100" t="s">
+      <c r="P100" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:16">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -8308,11 +8779,11 @@
       <c r="E101" t="s">
         <v>12</v>
       </c>
-      <c r="O101" t="s">
+      <c r="P101" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="17">
+    <row r="102" spans="1:16" ht="17">
       <c r="A102" t="s">
         <v>97</v>
       </c>
@@ -8328,11 +8799,11 @@
       <c r="E102" t="s">
         <v>13</v>
       </c>
-      <c r="O102" t="s">
+      <c r="P102" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="17">
+    <row r="103" spans="1:16" ht="17">
       <c r="A103" t="s">
         <v>97</v>
       </c>
@@ -8348,11 +8819,11 @@
       <c r="E103" t="s">
         <v>13</v>
       </c>
-      <c r="O103" t="s">
+      <c r="P103" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:16">
       <c r="A104" t="s">
         <v>97</v>
       </c>
@@ -8368,11 +8839,11 @@
       <c r="E104" t="s">
         <v>12</v>
       </c>
-      <c r="O104" t="s">
+      <c r="P104" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:16">
       <c r="A105" t="s">
         <v>97</v>
       </c>
@@ -8388,11 +8859,11 @@
       <c r="E105" t="s">
         <v>12</v>
       </c>
-      <c r="O105" t="s">
+      <c r="P105" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="17">
+    <row r="106" spans="1:16" ht="17">
       <c r="A106" t="s">
         <v>97</v>
       </c>
@@ -8408,11 +8879,11 @@
       <c r="E106" t="s">
         <v>13</v>
       </c>
-      <c r="O106" t="s">
+      <c r="P106" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="17">
+    <row r="107" spans="1:16" ht="17">
       <c r="A107" t="s">
         <v>97</v>
       </c>
@@ -8428,11 +8899,11 @@
       <c r="E107" t="s">
         <v>13</v>
       </c>
-      <c r="O107" t="s">
+      <c r="P107" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:16">
       <c r="A108" t="s">
         <v>97</v>
       </c>
@@ -8448,11 +8919,11 @@
       <c r="E108" t="s">
         <v>12</v>
       </c>
-      <c r="O108" t="s">
+      <c r="P108" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:16">
       <c r="A109" t="s">
         <v>97</v>
       </c>
@@ -8468,11 +8939,11 @@
       <c r="E109" t="s">
         <v>12</v>
       </c>
-      <c r="O109" t="s">
+      <c r="P109" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="17">
+    <row r="110" spans="1:16" ht="17">
       <c r="A110" t="s">
         <v>97</v>
       </c>
@@ -8488,11 +8959,11 @@
       <c r="E110" t="s">
         <v>13</v>
       </c>
-      <c r="O110" t="s">
+      <c r="P110" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="17">
+    <row r="111" spans="1:16" ht="17">
       <c r="A111" t="s">
         <v>97</v>
       </c>
@@ -8508,11 +8979,11 @@
       <c r="E111" t="s">
         <v>13</v>
       </c>
-      <c r="O111" t="s">
+      <c r="P111" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:16">
       <c r="A112" t="s">
         <v>97</v>
       </c>
@@ -8528,11 +8999,11 @@
       <c r="E112" t="s">
         <v>12</v>
       </c>
-      <c r="O112" t="s">
+      <c r="P112" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:16">
       <c r="A113" t="s">
         <v>97</v>
       </c>
@@ -8548,11 +9019,11 @@
       <c r="E113" t="s">
         <v>12</v>
       </c>
-      <c r="O113" t="s">
+      <c r="P113" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="17">
+    <row r="114" spans="1:16" ht="17">
       <c r="A114" t="s">
         <v>97</v>
       </c>
@@ -8568,11 +9039,11 @@
       <c r="E114" t="s">
         <v>13</v>
       </c>
-      <c r="O114" t="s">
+      <c r="P114" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="17">
+    <row r="115" spans="1:16" ht="17">
       <c r="A115" t="s">
         <v>97</v>
       </c>
@@ -8588,11 +9059,11 @@
       <c r="E115" t="s">
         <v>13</v>
       </c>
-      <c r="O115" t="s">
+      <c r="P115" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:16">
       <c r="A116" t="s">
         <v>97</v>
       </c>
@@ -8608,11 +9079,11 @@
       <c r="E116" t="s">
         <v>12</v>
       </c>
-      <c r="O116" t="s">
+      <c r="P116" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:16">
       <c r="A117" t="s">
         <v>97</v>
       </c>
@@ -8628,11 +9099,11 @@
       <c r="E117" t="s">
         <v>12</v>
       </c>
-      <c r="O117" t="s">
+      <c r="P117" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="17">
+    <row r="118" spans="1:16" ht="17">
       <c r="A118" t="s">
         <v>97</v>
       </c>
@@ -8648,11 +9119,11 @@
       <c r="E118" t="s">
         <v>13</v>
       </c>
-      <c r="O118" t="s">
+      <c r="P118" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="17">
+    <row r="119" spans="1:16" ht="17">
       <c r="A119" t="s">
         <v>97</v>
       </c>
@@ -8668,11 +9139,11 @@
       <c r="E119" t="s">
         <v>13</v>
       </c>
-      <c r="O119" t="s">
+      <c r="P119" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:16">
       <c r="A120" t="s">
         <v>97</v>
       </c>
@@ -8688,11 +9159,11 @@
       <c r="E120" t="s">
         <v>12</v>
       </c>
-      <c r="O120" t="s">
+      <c r="P120" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:16">
       <c r="A121" t="s">
         <v>97</v>
       </c>
@@ -8708,13 +9179,13 @@
       <c r="E121" t="s">
         <v>12</v>
       </c>
-      <c r="O121" t="s">
+      <c r="P121" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{33AF5E67-B3B7-7345-99F9-23588C8A9403}">
-    <sortState ref="A2:O113">
+  <autoFilter ref="A1:P1" xr:uid="{33AF5E67-B3B7-7345-99F9-23588C8A9403}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P113">
       <sortCondition ref="B1:B113"/>
     </sortState>
   </autoFilter>
@@ -8724,10 +9195,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8735,7 +9206,7 @@
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -8779,10 +9250,13 @@
         <v>85</v>
       </c>
       <c r="O1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -8798,11 +9272,11 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -8818,11 +9292,11 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -8838,11 +9312,11 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -8858,11 +9332,11 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -8878,11 +9352,11 @@
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -8898,11 +9372,11 @@
       <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -8918,11 +9392,11 @@
       <c r="E8" t="s">
         <v>2</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -8938,11 +9412,11 @@
       <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -8958,11 +9432,11 @@
       <c r="E10" t="s">
         <v>2</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -8978,11 +9452,11 @@
       <c r="E11" t="s">
         <v>3</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -8998,11 +9472,11 @@
       <c r="E12" t="s">
         <v>2</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -9018,11 +9492,11 @@
       <c r="E13" t="s">
         <v>3</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -9038,11 +9512,11 @@
       <c r="E14" t="s">
         <v>2</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -9058,11 +9532,11 @@
       <c r="E15" t="s">
         <v>3</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -9078,11 +9552,11 @@
       <c r="E16" t="s">
         <v>2</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -9098,11 +9572,11 @@
       <c r="E17" t="s">
         <v>3</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -9118,11 +9592,11 @@
       <c r="E18" t="s">
         <v>2</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -9138,11 +9612,11 @@
       <c r="E19" t="s">
         <v>3</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -9158,11 +9632,11 @@
       <c r="E20" t="s">
         <v>2</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -9178,11 +9652,11 @@
       <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -9198,11 +9672,11 @@
       <c r="E22" t="s">
         <v>2</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -9218,11 +9692,11 @@
       <c r="E23" t="s">
         <v>3</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -9238,11 +9712,11 @@
       <c r="E24" t="s">
         <v>2</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -9258,11 +9732,11 @@
       <c r="E25" t="s">
         <v>3</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -9278,11 +9752,11 @@
       <c r="E26" t="s">
         <v>2</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -9298,11 +9772,11 @@
       <c r="E27" t="s">
         <v>3</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -9318,11 +9792,11 @@
       <c r="E28" t="s">
         <v>2</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -9338,11 +9812,11 @@
       <c r="E29" t="s">
         <v>3</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -9358,11 +9832,11 @@
       <c r="E30" t="s">
         <v>2</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -9378,11 +9852,11 @@
       <c r="E31" t="s">
         <v>3</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -9398,11 +9872,11 @@
       <c r="E32" t="s">
         <v>2</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -9418,11 +9892,11 @@
       <c r="E33" t="s">
         <v>3</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -9438,11 +9912,11 @@
       <c r="E34" t="s">
         <v>2</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -9458,11 +9932,11 @@
       <c r="E35" t="s">
         <v>3</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -9478,11 +9952,11 @@
       <c r="E36" t="s">
         <v>2</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -9498,11 +9972,11 @@
       <c r="E37" t="s">
         <v>3</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -9518,11 +9992,11 @@
       <c r="E38" t="s">
         <v>2</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -9538,11 +10012,11 @@
       <c r="E39" t="s">
         <v>3</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -9558,11 +10032,11 @@
       <c r="E40" t="s">
         <v>2</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -9578,11 +10052,11 @@
       <c r="E41" t="s">
         <v>3</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -9598,11 +10072,11 @@
       <c r="E42" t="s">
         <v>2</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -9618,11 +10092,11 @@
       <c r="E43" t="s">
         <v>3</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -9638,11 +10112,11 @@
       <c r="E44" t="s">
         <v>2</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -9658,11 +10132,11 @@
       <c r="E45" t="s">
         <v>3</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -9678,11 +10152,11 @@
       <c r="E46" t="s">
         <v>2</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -9698,11 +10172,11 @@
       <c r="E47" t="s">
         <v>3</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -9718,11 +10192,11 @@
       <c r="E48" t="s">
         <v>2</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -9738,11 +10212,11 @@
       <c r="E49" t="s">
         <v>3</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -9758,11 +10232,11 @@
       <c r="E50" t="s">
         <v>2</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -9778,11 +10252,11 @@
       <c r="E51" t="s">
         <v>3</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -9798,11 +10272,11 @@
       <c r="E52" t="s">
         <v>2</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -9818,11 +10292,11 @@
       <c r="E53" t="s">
         <v>3</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -9838,11 +10312,11 @@
       <c r="E54" t="s">
         <v>2</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -9858,11 +10332,11 @@
       <c r="E55" t="s">
         <v>3</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -9878,11 +10352,11 @@
       <c r="E56" t="s">
         <v>2</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -9898,11 +10372,11 @@
       <c r="E57" t="s">
         <v>3</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -9918,11 +10392,11 @@
       <c r="E58" t="s">
         <v>2</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>97</v>
       </c>
@@ -9938,11 +10412,11 @@
       <c r="E59" t="s">
         <v>3</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>97</v>
       </c>
@@ -9958,11 +10432,11 @@
       <c r="E60" t="s">
         <v>2</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -9978,13 +10452,13 @@
       <c r="E61" t="s">
         <v>3</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{16E6D89C-FC13-5A4E-A6CD-97F710239834}">
-    <sortState ref="A2:O57">
+  <autoFilter ref="A1:P1" xr:uid="{16E6D89C-FC13-5A4E-A6CD-97F710239834}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P57">
       <sortCondition ref="B1:B57"/>
     </sortState>
   </autoFilter>
@@ -9994,10 +10468,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10006,7 +10480,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -10050,10 +10524,13 @@
         <v>85</v>
       </c>
       <c r="O1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="17">
+    <row r="16" spans="1:16" ht="17">
       <c r="F16" s="1"/>
     </row>
   </sheetData>
@@ -10063,10 +10540,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10074,7 +10551,7 @@
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -10118,6 +10595,9 @@
         <v>85</v>
       </c>
       <c r="O1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" t="s">
         <v>88</v>
       </c>
     </row>
